--- a/biology/Zoologie/Échenilleur_gris/Échenilleur_gris.xlsx
+++ b/biology/Zoologie/Échenilleur_gris/Échenilleur_gris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_gris</t>
+          <t>Échenilleur_gris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceblepyris caesius
 L'Échenilleur gris (Ceblepyris caesius) est une espèce de passereaux de la famille des campéphagidés vivant en Afrique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_gris</t>
+          <t>Échenilleur_gris</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend au Nord, du Cameroun et du Nigeria jusqu'au Sud du Soudan, à l'Éthiopie, l'Ouganda et au Kenya. Elle couvre une grande partie de l'Afrique équatoriale (Guinée équatoriale, Congo, Rwanda et Burundi) jusqu'à la Tanzanie. Enfin, cette espèce se trouve dans l'est de l'Afrique australe (Malawi, Mozambique, Zimbabwe, Swaziland et Afrique du Sud).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_gris</t>
+          <t>Échenilleur_gris</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 8.2, 2018)[1], cet oiseau est représenté par deux sous-espèces :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 8.2, 2018), cet oiseau est représenté par deux sous-espèces :
 Ceblepyris caesius caesius (Lichtenstein, 1823) ;
 Ceblepyris caesius purus (Sharpe, 1891).</t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_gris</t>
+          <t>Échenilleur_gris</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_gris</t>
+          <t>Échenilleur_gris</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,6 +620,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -609,7 +629,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_gris</t>
+          <t>Échenilleur_gris</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -628,6 +648,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -635,7 +657,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_gris</t>
+          <t>Échenilleur_gris</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -655,10 +677,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nom local
-Dans son aire de répartition, cet oiseau porte les noms vernaculaires de katakoeroe en afrikaans (Afrique du sud), de u-Singa en xhosa et de mmaselakhoasa en sotho du Sud.
-Philatélie
-L'espèce est représentée sur un timbre du Malawi (30 t.).
+          <t>Nom local</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans son aire de répartition, cet oiseau porte les noms vernaculaires de katakoeroe en afrikaans (Afrique du sud), de u-Singa en xhosa et de mmaselakhoasa en sotho du Sud.
 </t>
         </is>
       </c>
@@ -669,7 +694,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_gris</t>
+          <t>Échenilleur_gris</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -684,12 +709,51 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>L'animal et l'homme</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est représentée sur un timbre du Malawi (30 t.).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Échenilleur_gris</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chenilleur_gris</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce faisait auparavant partie du genre Coracina. Elle a été rattachée au genre Ceblepyris, nouvellement créé, par la classification de référence du Congrès ornithologique international  (version 8.2, 2018)[1] sur des critères phylogéniques.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce faisait auparavant partie du genre Coracina. Elle a été rattachée au genre Ceblepyris, nouvellement créé, par la classification de référence du Congrès ornithologique international  (version 8.2, 2018) sur des critères phylogéniques.
 </t>
         </is>
       </c>
